--- a/Metadata/MetadataAnalysis.xlsx
+++ b/Metadata/MetadataAnalysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzo/Desktop/Sklodowska project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375B849F-AF8A-2140-8B33-58FA8A589A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45E76C2-6A41-3541-8CE5-DB1F1887F774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{BF6F3CCB-CD95-E347-A950-BC98DAD5BEFA}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="26640" xr2:uid="{BF6F3CCB-CD95-E347-A950-BC98DAD5BEFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>https://www.europeana.eu/it/item/916120/pm_object_POST054586</t>
   </si>
@@ -61,27 +61,9 @@
     <t>Science Museum Group</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://collection.sciencemuseumgroup.org.uk/objects/co64509/radium-chromolithograph-portrait-print</t>
-  </si>
-  <si>
     <t>Print (Radium)</t>
   </si>
   <si>
-    <t>https://archive.org/details/traitderadioac01curi/mode/2up</t>
-  </si>
-  <si>
-    <t>Trattato vol 1</t>
-  </si>
-  <si>
-    <t>Internet Archive</t>
-  </si>
-  <si>
-    <t>MARCXML</t>
-  </si>
-  <si>
-    <t>Trattato vol 2</t>
-  </si>
-  <si>
     <t>Trattato Scritto</t>
   </si>
   <si>
@@ -91,9 +73,6 @@
     <t>SBN OPAC</t>
   </si>
   <si>
-    <t>ISBD -&gt; MARC21 -&gt; UNIMARC</t>
-  </si>
-  <si>
     <t>CCO</t>
   </si>
   <si>
@@ -106,9 +85,6 @@
     <t>British Paté</t>
   </si>
   <si>
-    <t>not found</t>
-  </si>
-  <si>
     <t>Article</t>
   </si>
   <si>
@@ -130,19 +106,58 @@
     <t>Film</t>
   </si>
   <si>
-    <t>SOMA</t>
-  </si>
-  <si>
-    <t>Hanno sviluppato un'AI che mixa vari standard</t>
-  </si>
-  <si>
     <t>iMDB</t>
   </si>
   <si>
-    <t>SMG</t>
-  </si>
-  <si>
     <t>Notebook</t>
+  </si>
+  <si>
+    <t>Wellcome collection</t>
+  </si>
+  <si>
+    <t>Scelto poiché elementi trattati come archivisitci</t>
+  </si>
+  <si>
+    <t>IPTC</t>
+  </si>
+  <si>
+    <t>https://www.iptc.org/std/photometadata/specification/IPTC-PhotoMetadata-2021.1.html#creator</t>
+  </si>
+  <si>
+    <t>schema.org</t>
+  </si>
+  <si>
+    <t>Originale</t>
+  </si>
+  <si>
+    <t>Scelto da noi</t>
+  </si>
+  <si>
+    <t>https://vraweb.org/wp-content/uploads/2020/04/CatalogingCulturalObjectsFullv2.pdf</t>
+  </si>
+  <si>
+    <t>CIDOC-CRM</t>
+  </si>
+  <si>
+    <t>https://schema.org/docs/schemas.html</t>
+  </si>
+  <si>
+    <t>Specificare che mettno anche unimarc, ma abbiamo preferito questo perche più aggiornato</t>
+  </si>
+  <si>
+    <t>https://www.europeana.eu/it/item/9200579/spchg8jz</t>
+  </si>
+  <si>
+    <t>MARC21</t>
+  </si>
+  <si>
+    <t>ISAD(G)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>https://www.loc.gov/marc/bibliographic/</t>
   </si>
 </sst>
 </file>
@@ -172,7 +187,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,8 +206,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -200,18 +221,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -529,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52BE8151-3ABA-064A-B303-B00D897F3455}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -539,163 +572,180 @@
     <col min="2" max="2" width="32.1640625" customWidth="1"/>
     <col min="3" max="3" width="32.33203125" customWidth="1"/>
     <col min="4" max="4" width="32.5" customWidth="1"/>
-    <col min="5" max="5" width="40.1640625" customWidth="1"/>
+    <col min="5" max="5" width="131.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E6" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="5" t="s">
+    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="D9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
+      <c r="D10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+      <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B11" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{95937129-B892-DC4C-97A1-EFEBE6F04A54}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{EE8B5C56-0351-214C-9181-9C039E53397F}"/>
-    <hyperlink ref="A7" r:id="rId3" display="https://www.sbn.it/web/opacsbn/risultati-ricerca-avanzata/-/opac-adv/detail/PUV0307763?fieldstruct%5B1%5D=ricerca.parole_tutte%3A4%3D6&amp;fieldvalue%5B1%5D=Traite+de+radioactivite+&amp;fieldaccess%5B1%5D=Any%3A1016%3Anocheck&amp;struct%3A1001=ricerca.parole_almeno_una%3A%40or%40" xr:uid="{6F717747-300D-6240-ADDC-FC68FEF7EBFB}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{EE8B5C56-0351-214C-9181-9C039E53397F}"/>
+    <hyperlink ref="A2" r:id="rId3" display="https://www.sbn.it/web/opacsbn/risultati-ricerca-avanzata/-/opac-adv/detail/PUV0307763?fieldstruct%5B1%5D=ricerca.parole_tutte%3A4%3D6&amp;fieldvalue%5B1%5D=Traite+de+radioactivite+&amp;fieldaccess%5B1%5D=Any%3A1016%3Anocheck&amp;struct%3A1001=ricerca.parole_almeno_una%3A%40or%40" xr:uid="{6F717747-300D-6240-ADDC-FC68FEF7EBFB}"/>
     <hyperlink ref="A9" r:id="rId4" xr:uid="{1F04A6FA-9128-3C49-9647-F15FADA193FD}"/>
+    <hyperlink ref="E6" r:id="rId5" location="creator" xr:uid="{ED2CE04F-D08E-2F46-BC0A-14EA7107E0A9}"/>
+    <hyperlink ref="E9" r:id="rId6" xr:uid="{7F21E86D-2553-4F42-B87E-C7AD67300C6F}"/>
+    <hyperlink ref="E5" r:id="rId7" xr:uid="{3B09057D-8562-3348-BD32-1D43837F2F89}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
